--- a/Kombucha-Sales-Analytics/Kombucha-Sales-Analytics.xlsx
+++ b/Kombucha-Sales-Analytics/Kombucha-Sales-Analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959E8BD-A0F7-4CB9-A3CF-84CC41DA10EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E9FB0-2B76-4011-894E-4C14B197393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{A52F4A9B-95B0-429E-9753-8C4EC5441309}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{A52F4A9B-95B0-429E-9753-8C4EC5441309}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SUMMARY!#REF!</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Dataset!$E$3:$E$702</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Dataset!$G$3:$G$702</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dataset!$B$3:$B$702</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dataset!$E$3:$E$702</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dataset!$H$3:$H$702</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dataset!$J$3:$J$702</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Dataset!$B$3:$B$702</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Dataset!$G$3:$G$702</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Dataset!$H$3:$H$702</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Dataset!$J$3:$J$702</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Dataset!$B$3:$B$702</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Dataset!$E$3:$E$702</definedName>
     <definedName name="_xlcn.WorksheetConnection_KombuchaSalesAnalytics.xlsxSales1" hidden="1">Sales[]</definedName>
     <definedName name="SegmentaçãodeDados_City">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Region">#N/A</definedName>
@@ -1558,12 +1558,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1576,6 +1570,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1584,6 +1584,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1596,18 +1608,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1655,6 +1655,48 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -1813,48 +1855,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -6967,10 +6967,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7065,10 +7065,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10436,10 +10436,10 @@
       <xdr:rowOff>95246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10475,8 +10475,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7391401" y="476246"/>
-              <a:ext cx="4324349" cy="3409954"/>
+              <a:off x="7385051" y="476246"/>
+              <a:ext cx="4330699" cy="3262317"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10511,13 +10511,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103189</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17696,6 +17696,221 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7A159AA-9C90-4F45-AA43-8D151DCB4B4D}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Row Labels">
+  <location ref="H4:J13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Result" fld="4" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Profit]"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="18">
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[Sales].[Region].&amp;[PR]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[Sales].[Kombucha Type].&amp;[Conventional]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1">
+        <x14:conditionalFormats count="1">
+          <x14:conditionalFormat priority="1" id="{E25DA858-7A80-4E33-9A8B-59B1335C0182}">
+            <x14:pivotAreas count="1">
+              <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+                <references count="1">
+                  <reference field="4294967294" count="1" selected="0">
+                    <x v="1"/>
+                  </reference>
+                </references>
+              </pivotArea>
+            </x14:pivotAreas>
+          </x14:conditionalFormat>
+        </x14:conditionalFormats>
+      </x14:pivotTableDefinition>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Kombucha-Sales-Analytics.xlsx!Sales">
+        <x15:activeTabTopLevelEntity name="[Sales]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC938A-CAB7-4528-B85D-D3375E36B743}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Row labels">
   <location ref="C4:F59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -17936,7 +18151,7 @@
     <dataField name="Total Units Sold" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="32">
-    <format dxfId="39">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17945,7 +18160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -17957,7 +18172,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -17969,7 +18184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -17981,7 +18196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -17993,7 +18208,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18005,7 +18220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18017,7 +18232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18030,7 +18245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18043,7 +18258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18062,7 +18277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18079,7 +18294,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18092,7 +18307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18113,7 +18328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18128,7 +18343,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18141,7 +18356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18154,7 +18369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18167,7 +18382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18188,7 +18403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18203,7 +18418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18216,7 +18431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18225,7 +18440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18234,7 +18449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -18245,7 +18460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="24">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -18256,7 +18471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18266,7 +18481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18276,7 +18491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18286,7 +18501,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18296,7 +18511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18306,7 +18521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18316,7 +18531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18328,7 +18543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -18509,221 +18724,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7A159AA-9C90-4F45-AA43-8D151DCB4B4D}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Row Labels">
-  <location ref="H4:J13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Result" fld="4" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Profit]"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="41">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="18">
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[Sales].[Region].&amp;[PR]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[Sales].[Kombucha Type].&amp;[Conventional]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1">
-        <x14:conditionalFormats count="1">
-          <x14:conditionalFormat priority="1" id="{E25DA858-7A80-4E33-9A8B-59B1335C0182}">
-            <x14:pivotAreas count="1">
-              <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-                <references count="1">
-                  <reference field="4294967294" count="1" selected="0">
-                    <x v="1"/>
-                  </reference>
-                </references>
-              </pivotArea>
-            </x14:pivotAreas>
-          </x14:conditionalFormat>
-        </x14:conditionalFormats>
-      </x14:pivotTableDefinition>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Kombucha-Sales-Analytics.xlsx!Sales">
-        <x15:activeTabTopLevelEntity name="[Sales]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B20E9E9-9122-48F8-9775-C43386CC3E88}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Row Labels">
   <location ref="B5:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
@@ -18893,23 +18893,23 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
               <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
@@ -41724,7 +41724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732C437-A2F1-4EBB-B962-1DFA529B6B34}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:K13"/>
     </sheetView>
   </sheetViews>
@@ -41740,24 +41740,24 @@
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="J4" s="53" t="s">
         <v>84</v>
       </c>
@@ -41766,11 +41766,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="J5" s="54">
         <v>1</v>
       </c>
@@ -41779,11 +41779,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
       <c r="J6" s="54">
         <v>2</v>
       </c>
@@ -41792,11 +41792,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
       <c r="J7" s="54">
         <v>3</v>
       </c>
@@ -41805,11 +41805,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
       <c r="J8" s="54">
         <v>4</v>
       </c>
@@ -41818,11 +41818,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="J9" s="54">
         <v>5</v>
       </c>
@@ -41831,11 +41831,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
@@ -41854,109 +41854,109 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
     <mergeCell ref="D4:H10"/>
     <mergeCell ref="B1:XFD2"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K5" location="'Descriptive Statitics and EDA'!A1" display="Descriptive Statistics and EDA" xr:uid="{CE8D870E-AA14-40AB-883B-920B2BEAF0AA}"/>
@@ -41975,8 +41975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CB354-19AF-4DED-97FB-CE16CF678BE5}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41993,13 +41993,13 @@
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -42369,13 +42369,13 @@
     <col min="17" max="17" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -42403,14 +42403,14 @@
       <c r="J4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
@@ -42434,14 +42434,14 @@
       <c r="J5" s="24">
         <v>35208.029999999984</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
@@ -42465,12 +42465,12 @@
       <c r="J6" s="24">
         <v>23421.049999999945</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="41" t="s">
@@ -42494,14 +42494,14 @@
       <c r="J7" s="24">
         <v>22833.26999999999</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="41" t="s">
@@ -42525,12 +42525,12 @@
       <c r="J8" s="24">
         <v>15326.459999999963</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="41" t="s">
@@ -42554,14 +42554,14 @@
       <c r="J9" s="24">
         <v>6326.9700000000448</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="41" t="s">
@@ -42585,12 +42585,12 @@
       <c r="J10" s="24">
         <v>-257.61000000001513</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="41" t="s">
@@ -42614,14 +42614,14 @@
       <c r="J11" s="24">
         <v>-9888.6700000000128</v>
       </c>
-      <c r="M11" s="70" t="s">
+      <c r="M11" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="41" t="s">
@@ -42645,12 +42645,12 @@
       <c r="J12" s="24">
         <v>-34838.639999999985</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="41" t="s">
@@ -43321,12 +43321,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M11:R12"/>
     <mergeCell ref="B1:XFD2"/>
     <mergeCell ref="M9:R10"/>
     <mergeCell ref="M7:R8"/>
     <mergeCell ref="M5:R6"/>
     <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <conditionalFormatting pivot="1" sqref="E24:E31 E42:E49 E6:E13 E33:E40 E15:E22 E51 E53:E54 E56:E57 E52 E55 E58">
     <cfRule type="dataBar" priority="5">
@@ -43409,13 +43409,13 @@
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -43428,29 +43428,29 @@
       <c r="D4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="39">
         <f>'Descriptive Statitics and EDA'!$D$11</f>
         <v>1268</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="F6" s="67" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
@@ -43461,10 +43461,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="26" t="s">
         <v>64</v>
       </c>
@@ -43573,7 +43573,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="70" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="64"/>
@@ -43586,7 +43586,7 @@
       <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -43620,10 +43620,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43690,13 +43690,13 @@
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -43754,13 +43754,13 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
